--- a/CHAPTER1/SUPPLEMENTARY_TABLE.xlsx
+++ b/CHAPTER1/SUPPLEMENTARY_TABLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPO_GITHUB\supp_info\CHAPTER1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8EA987-B7FC-49BC-B52E-C8DC18FAE73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E643C798-1E9E-46EE-8CE5-1B41AB9CD62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{294464FA-40FD-4A1D-9BD7-DC8B50835AC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{294464FA-40FD-4A1D-9BD7-DC8B50835AC9}"/>
   </bookViews>
   <sheets>
     <sheet name="DESCRIPTION" sheetId="6" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1673">
   <si>
     <t>small molecule metabolic process</t>
   </si>
@@ -5141,9 +5141,6 @@
     <t>Suppl table5</t>
   </si>
   <si>
-    <t>Gene id</t>
-  </si>
-  <si>
     <t>Oryza sativa genes as node description (GO molecular function are edges)</t>
   </si>
   <si>
@@ -5181,6 +5178,73 @@
   </si>
   <si>
     <t>Arabidopsis thaliana genes as node description (GO molecular function are edges)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arabidopsis thaliana g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ene id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Oryza sativa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">subsp. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">japonica </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gene id</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5365,16 +5429,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5691,8 +5755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23A7C6B-0387-46D3-B983-4CA4E7DC0528}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5719,10 +5783,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="20" t="s">
         <v>152</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -5733,9 +5797,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="17" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D3" s="16" t="s">
@@ -5743,9 +5807,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="14" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -5753,9 +5817,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
@@ -5763,10 +5827,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -5777,9 +5841,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -5787,9 +5851,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="14" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -5797,9 +5861,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="17" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -5807,10 +5871,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -5821,9 +5885,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="18" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="17" t="s">
         <v>149</v>
       </c>
       <c r="D11" s="16" t="s">
@@ -5831,9 +5895,9 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="18" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -5841,10 +5905,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -5855,8 +5919,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="15" t="s">
         <v>98</v>
       </c>
@@ -5869,123 +5933,123 @@
         <v>1657</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C15" s="20" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>153</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>1658</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>154</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>1661</v>
+      <c r="D17" s="18" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>1662</v>
+      <c r="D18" s="18" t="s">
+        <v>1661</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>1663</v>
+      <c r="D19" s="18" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>1664</v>
+      <c r="D20" s="18" t="s">
+        <v>1663</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>1665</v>
+      <c r="D21" s="18" t="s">
+        <v>1664</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>1666</v>
+      <c r="D22" s="18" t="s">
+        <v>1665</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>1667</v>
+      <c r="D23" s="18" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>1668</v>
+      <c r="D24" s="18" t="s">
+        <v>1667</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>1669</v>
+      <c r="D25" s="18" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>1670</v>
+      <c r="D26" s="18" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -5993,140 +6057,140 @@
         <v>1657</v>
       </c>
       <c r="B27" s="19" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>1671</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>154</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>1661</v>
+      <c r="D29" s="18" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>1662</v>
+      <c r="D30" s="18" t="s">
+        <v>1661</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="20" t="s">
-        <v>1663</v>
+      <c r="D31" s="18" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>1664</v>
+      <c r="D32" s="18" t="s">
+        <v>1663</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>1665</v>
+      <c r="D33" s="18" t="s">
+        <v>1664</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>1666</v>
+      <c r="D34" s="18" t="s">
+        <v>1665</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="20" t="s">
-        <v>1667</v>
+      <c r="D35" s="18" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>1668</v>
+      <c r="D36" s="18" t="s">
+        <v>1667</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="20" t="s">
-        <v>1669</v>
+      <c r="D37" s="18" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>1670</v>
+      <c r="D38" s="18" t="s">
+        <v>1669</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D14" xr:uid="{B23A7C6B-0387-46D3-B983-4CA4E7DC0528}"/>
   <mergeCells count="12">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A15:A26"/>
     <mergeCell ref="B15:B26"/>
     <mergeCell ref="A27:A38"/>
     <mergeCell ref="B27:B38"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28595,7 +28659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C24B07-9021-427F-A0FE-D47C90F3AD37}">
   <dimension ref="A1:L986"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
